--- a/Personal Obrador.xlsx
+++ b/Personal Obrador.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC025F2-6830-4DDD-B3ED-00D30E307C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36483B7B-21A3-4350-81F1-D49603B090A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{43426DD8-2AA0-4E9C-A707-BFAA73D5D235}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>Aguilar Solano Beatríz</t>
   </si>
@@ -195,34 +195,37 @@
     <t>Hernández Téllez Erick</t>
   </si>
   <si>
-    <t>Lunes 14</t>
-  </si>
-  <si>
-    <t>Martes 15</t>
-  </si>
-  <si>
-    <t>Miercoles 16</t>
-  </si>
-  <si>
-    <t>Jueves 17</t>
-  </si>
-  <si>
-    <t>Viernes 18</t>
-  </si>
-  <si>
-    <t>Sabado 19</t>
-  </si>
-  <si>
-    <t>Domingo 20</t>
-  </si>
-  <si>
     <t>Semana 25</t>
   </si>
   <si>
     <t>Personal nuevo ingreso</t>
   </si>
   <si>
-    <t>CENTRAL</t>
+    <t>Romero Gonzales Luisa Maria</t>
+  </si>
+  <si>
+    <t>Quiroz flores Christopher</t>
+  </si>
+  <si>
+    <t>Lunes 16</t>
+  </si>
+  <si>
+    <t>Martes 17</t>
+  </si>
+  <si>
+    <t>Miercoles 18</t>
+  </si>
+  <si>
+    <t>Jueves 19</t>
+  </si>
+  <si>
+    <t>Viernes 20</t>
+  </si>
+  <si>
+    <t>Sabado 21</t>
+  </si>
+  <si>
+    <t>Domingo 22</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +292,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -370,11 +379,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -417,17 +465,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4CFA-1C11-4ABD-9DFD-012DF7328487}">
   <dimension ref="B1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:J63"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,174 +1838,176 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
+    <row r="52" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="23">
         <v>44</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="14" t="s">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+    </row>
+    <row r="53" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="I54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+      <c r="C56" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
-    </row>
-    <row r="60" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="18"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
     </row>
     <row r="64" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
     </row>
     <row r="65" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="10" t="s">

--- a/Personal Obrador.xlsx
+++ b/Personal Obrador.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36483B7B-21A3-4350-81F1-D49603B090A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054B648-5327-4036-B278-CDF4ACDB1537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{43426DD8-2AA0-4E9C-A707-BFAA73D5D235}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Aguilar Solano Beatríz</t>
   </si>
@@ -201,31 +201,40 @@
     <t>Personal nuevo ingreso</t>
   </si>
   <si>
-    <t>Romero Gonzales Luisa Maria</t>
-  </si>
-  <si>
-    <t>Quiroz flores Christopher</t>
-  </si>
-  <si>
-    <t>Lunes 16</t>
-  </si>
-  <si>
-    <t>Martes 17</t>
-  </si>
-  <si>
-    <t>Miercoles 18</t>
-  </si>
-  <si>
-    <t>Jueves 19</t>
-  </si>
-  <si>
-    <t>Viernes 20</t>
-  </si>
-  <si>
-    <t>Sabado 21</t>
-  </si>
-  <si>
-    <t>Domingo 22</t>
+    <t>Aquino Linares Maria de Jesus</t>
+  </si>
+  <si>
+    <t>Vazquez Jose Luis Victoria</t>
+  </si>
+  <si>
+    <t>Alarcon Morales Magdalena</t>
+  </si>
+  <si>
+    <t>Lunes 30</t>
+  </si>
+  <si>
+    <t>Martes 31</t>
+  </si>
+  <si>
+    <t>Miercoles 01</t>
+  </si>
+  <si>
+    <t>Jueves 02</t>
+  </si>
+  <si>
+    <t>Viernes 02</t>
+  </si>
+  <si>
+    <t>Sabado 03</t>
+  </si>
+  <si>
+    <t>Domingo 04</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>OBRADOR</t>
   </si>
 </sst>
 </file>
@@ -235,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +287,24 @@
       <name val="Lucida Handwriting"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,30 +463,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,22 +470,52 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4CFA-1C11-4ABD-9DFD-012DF7328487}">
   <dimension ref="B1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:J63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K63" sqref="A53:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,35 +1075,36 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="3" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1315,23 +1341,23 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1580,23 +1606,23 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1619,14 +1645,14 @@
         <v>54</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
     </row>
     <row r="38" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -1793,7 +1819,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>41</v>
       </c>
@@ -1808,7 +1834,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>42</v>
       </c>
@@ -1823,7 +1849,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>43</v>
       </c>
@@ -1838,182 +1864,193 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="23">
+    <row r="52" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="12">
         <v>44</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-    </row>
-    <row r="53" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="26" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="16" t="s">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+    </row>
+    <row r="54" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17" t="s">
+      <c r="C54" s="23"/>
+      <c r="D54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="10"/>
+      <c r="C61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="18"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-    </row>
-    <row r="62" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-    </row>
-    <row r="64" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="20" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
     </row>
     <row r="65" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="1" t="s">
         <v>48</v>
       </c>
@@ -2112,7 +2149,7 @@
       <c r="J70" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="M37:T37"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B3:C3"/>
@@ -2124,7 +2161,6 @@
     <mergeCell ref="B53:J53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B59:J59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal Obrador.xlsx
+++ b/Personal Obrador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054B648-5327-4036-B278-CDF4ACDB1537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090899EC-3CFD-41EE-9A10-8F6C6FFD7A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{43426DD8-2AA0-4E9C-A707-BFAA73D5D235}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>Aguilar Solano Beatríz</t>
   </si>
@@ -195,54 +195,46 @@
     <t>Hernández Téllez Erick</t>
   </si>
   <si>
-    <t>Semana 25</t>
-  </si>
-  <si>
     <t>Personal nuevo ingreso</t>
   </si>
   <si>
-    <t>Aquino Linares Maria de Jesus</t>
-  </si>
-  <si>
-    <t>Vazquez Jose Luis Victoria</t>
-  </si>
-  <si>
-    <t>Alarcon Morales Magdalena</t>
-  </si>
-  <si>
-    <t>Lunes 30</t>
-  </si>
-  <si>
-    <t>Martes 31</t>
-  </si>
-  <si>
-    <t>Miercoles 01</t>
-  </si>
-  <si>
-    <t>Jueves 02</t>
-  </si>
-  <si>
-    <t>Viernes 02</t>
-  </si>
-  <si>
-    <t>Sabado 03</t>
-  </si>
-  <si>
-    <t>Domingo 04</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>OBRADOR</t>
+    <t>Semana 37</t>
+  </si>
+  <si>
+    <t>Lunes 06</t>
+  </si>
+  <si>
+    <t>Martes 07</t>
+  </si>
+  <si>
+    <t>Miercoles 08</t>
+  </si>
+  <si>
+    <t>Jueves 09</t>
+  </si>
+  <si>
+    <t>Viernes 10</t>
+  </si>
+  <si>
+    <t>Sabado 11</t>
+  </si>
+  <si>
+    <t>Domingo 12</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>Bermudez Cortes Jessica Nesly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -304,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -477,36 +475,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -517,6 +485,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4CFA-1C11-4ABD-9DFD-012DF7328487}">
   <dimension ref="B1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K63" sqref="A53:K63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,32 +1083,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1341,23 +1345,23 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1606,23 +1610,23 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1645,14 +1649,14 @@
         <v>54</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
     </row>
     <row r="38" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -1819,7 +1823,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>41</v>
       </c>
@@ -1834,7 +1838,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>42</v>
       </c>
@@ -1849,7 +1853,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>43</v>
       </c>
@@ -1864,7 +1868,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <v>44</v>
       </c>
@@ -1879,74 +1883,79 @@
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="22" t="s">
+    <row r="53" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-    </row>
-    <row r="54" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="30"/>
+      <c r="D54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="H54" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="I54" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="J54" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I54" s="9" t="s">
+      <c r="K54" s="32"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+    </row>
+    <row r="55" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="10"/>
+      <c r="C55" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10"/>
-      <c r="C55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K55" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
       <c r="D57" s="9"/>
@@ -1957,7 +1966,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="9"/>
@@ -1968,22 +1977,20 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="60" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
-      <c r="C60" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="C60" s="11"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -1991,15 +1998,11 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="10"/>
-      <c r="C61" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="C61" s="11"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -2007,11 +2010,9 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="9"/>
@@ -2022,7 +2023,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="9"/>
@@ -2033,24 +2034,24 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="24" t="s">
+    <row r="64" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
     </row>
     <row r="65" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="1" t="s">
         <v>48</v>
       </c>
@@ -2164,7 +2165,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Personal Obrador.xlsx
+++ b/Personal Obrador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090899EC-3CFD-41EE-9A10-8F6C6FFD7A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8698F276-D026-41BA-BDE8-64B4263E6FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{43426DD8-2AA0-4E9C-A707-BFAA73D5D235}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Aguilar Solano Beatríz</t>
   </si>
@@ -198,34 +198,31 @@
     <t>Personal nuevo ingreso</t>
   </si>
   <si>
-    <t>Semana 37</t>
-  </si>
-  <si>
-    <t>Lunes 06</t>
-  </si>
-  <si>
-    <t>Martes 07</t>
-  </si>
-  <si>
-    <t>Miercoles 08</t>
-  </si>
-  <si>
-    <t>Jueves 09</t>
-  </si>
-  <si>
-    <t>Viernes 10</t>
-  </si>
-  <si>
-    <t>Sabado 11</t>
-  </si>
-  <si>
-    <t>Domingo 12</t>
-  </si>
-  <si>
     <t>CENTRAL</t>
   </si>
   <si>
-    <t>Bermudez Cortes Jessica Nesly</t>
+    <t>Semana 40</t>
+  </si>
+  <si>
+    <t>Lunes 27</t>
+  </si>
+  <si>
+    <t>Martes 28</t>
+  </si>
+  <si>
+    <t>Miercoles 29</t>
+  </si>
+  <si>
+    <t>Jueves 30</t>
+  </si>
+  <si>
+    <t>Viernes 01</t>
+  </si>
+  <si>
+    <t>Sabado 02</t>
+  </si>
+  <si>
+    <t>Domingo 03</t>
   </si>
 </sst>
 </file>
@@ -485,6 +482,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,18 +512,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4CFA-1C11-4ABD-9DFD-012DF7328487}">
   <dimension ref="B1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:K63"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,32 +1080,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1345,23 +1342,23 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1610,23 +1607,23 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1649,14 +1646,14 @@
         <v>54</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
     </row>
     <row r="38" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -1884,55 +1881,53 @@
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="28" t="s">
+      <c r="B54" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="C54" s="31"/>
+      <c r="D54" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="E54" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="28" t="s">
+      <c r="F54" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="G54" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="H54" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J54" s="28" t="s">
+      <c r="I54" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K54" s="32"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
+      <c r="J54" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="22"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
     </row>
     <row r="55" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
-      <c r="C55" s="31" t="s">
-        <v>66</v>
-      </c>
+      <c r="C55" s="21"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -1941,7 +1936,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1954,6 +1949,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
+      <c r="K56" s="18"/>
     </row>
     <row r="57" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
@@ -1965,6 +1961,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
+      <c r="K57" s="18"/>
     </row>
     <row r="58" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
@@ -2035,23 +2032,23 @@
       <c r="J63" s="9"/>
     </row>
     <row r="64" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
     </row>
     <row r="65" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="1" t="s">
         <v>48</v>
       </c>

--- a/Personal Obrador.xlsx
+++ b/Personal Obrador.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8698F276-D026-41BA-BDE8-64B4263E6FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1D4B5-1746-4AD1-A84A-A417336EAB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{43426DD8-2AA0-4E9C-A707-BFAA73D5D235}"/>
   </bookViews>
@@ -195,34 +195,34 @@
     <t>Hernández Téllez Erick</t>
   </si>
   <si>
-    <t>Personal nuevo ingreso</t>
-  </si>
-  <si>
-    <t>CENTRAL</t>
-  </si>
-  <si>
-    <t>Semana 40</t>
-  </si>
-  <si>
-    <t>Lunes 27</t>
-  </si>
-  <si>
-    <t>Martes 28</t>
-  </si>
-  <si>
-    <t>Miercoles 29</t>
-  </si>
-  <si>
-    <t>Jueves 30</t>
-  </si>
-  <si>
-    <t>Viernes 01</t>
-  </si>
-  <si>
-    <t>Sabado 02</t>
-  </si>
-  <si>
-    <t>Domingo 03</t>
+    <t>Semana 41</t>
+  </si>
+  <si>
+    <t>Lunes 04</t>
+  </si>
+  <si>
+    <t>Martes 05</t>
+  </si>
+  <si>
+    <t>Miercoles 06</t>
+  </si>
+  <si>
+    <t>Jueves 07</t>
+  </si>
+  <si>
+    <t>Viernes 08</t>
+  </si>
+  <si>
+    <t>Sabado 09</t>
+  </si>
+  <si>
+    <t>Domingo 10</t>
+  </si>
+  <si>
+    <t>Lopez Rueda Tomas</t>
+  </si>
+  <si>
+    <t>Personal nuevo ingreso obrador</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +292,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -484,9 +490,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +520,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4CFA-1C11-4ABD-9DFD-012DF7328487}">
   <dimension ref="B1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,32 +1086,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1342,23 +1348,23 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1607,23 +1613,23 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1646,14 +1652,14 @@
         <v>54</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
     </row>
     <row r="38" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -1881,45 +1887,45 @@
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="31" t="s">
+      <c r="C54" s="30"/>
+      <c r="D54" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="19" t="s">
+      <c r="F54" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="G54" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="H54" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="I54" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="J54" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="22"/>
+      <c r="K54" s="21"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
@@ -1927,7 +1933,9 @@
     </row>
     <row r="55" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
-      <c r="C55" s="21"/>
+      <c r="C55" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -1935,9 +1943,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="K55" s="18"/>
     </row>
     <row r="56" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
@@ -2032,23 +2038,23 @@
       <c r="J63" s="9"/>
     </row>
     <row r="64" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
     </row>
     <row r="65" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="1" t="s">
         <v>48</v>
       </c>

--- a/Personal Obrador.xlsx
+++ b/Personal Obrador.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1D4B5-1746-4AD1-A84A-A417336EAB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{43426DD8-2AA0-4E9C-A707-BFAA73D5D235}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,40 +194,40 @@
     <t>Hernández Téllez Erick</t>
   </si>
   <si>
-    <t>Semana 41</t>
-  </si>
-  <si>
-    <t>Lunes 04</t>
-  </si>
-  <si>
-    <t>Martes 05</t>
-  </si>
-  <si>
-    <t>Miercoles 06</t>
-  </si>
-  <si>
-    <t>Jueves 07</t>
-  </si>
-  <si>
-    <t>Viernes 08</t>
-  </si>
-  <si>
-    <t>Sabado 09</t>
-  </si>
-  <si>
-    <t>Domingo 10</t>
-  </si>
-  <si>
-    <t>Lopez Rueda Tomas</t>
-  </si>
-  <si>
-    <t>Personal nuevo ingreso obrador</t>
+    <t>Semana 44</t>
+  </si>
+  <si>
+    <t>Lunes 25</t>
+  </si>
+  <si>
+    <t>Martes 26</t>
+  </si>
+  <si>
+    <t>Miercoles 27</t>
+  </si>
+  <si>
+    <t>Jueves 28</t>
+  </si>
+  <si>
+    <t>Viernes 29</t>
+  </si>
+  <si>
+    <t>Sabado 30</t>
+  </si>
+  <si>
+    <t>Domingo 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal nuevo ingreso </t>
+  </si>
+  <si>
+    <t>Remedios Juarez Ortiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -491,6 +490,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,9 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,11 +1069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4CFA-1C11-4ABD-9DFD-012DF7328487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:K63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,32 +1085,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1348,23 +1347,23 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1613,23 +1612,23 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="28"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1652,14 +1651,14 @@
         <v>54</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
     </row>
     <row r="38" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -1887,23 +1886,23 @@
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
+      <c r="B53" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="30"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="19" t="s">
         <v>57</v>
       </c>
@@ -1933,9 +1932,7 @@
     </row>
     <row r="55" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
-      <c r="C55" s="32" t="s">
-        <v>64</v>
-      </c>
+      <c r="C55" s="22"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -1959,7 +1956,9 @@
     </row>
     <row r="57" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -2038,23 +2037,23 @@
       <c r="J63" s="9"/>
     </row>
     <row r="64" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
     </row>
     <row r="65" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="1" t="s">
         <v>48</v>
       </c>

--- a/Personal Obrador.xlsx
+++ b/Personal Obrador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1D4B5-1746-4AD1-A84A-A417336EAB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0CA64-51B4-4D25-B665-0D882D377C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{43426DD8-2AA0-4E9C-A707-BFAA73D5D235}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{43426DD8-2AA0-4E9C-A707-BFAA73D5D235}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>Aguilar Solano Beatríz</t>
   </si>
@@ -198,31 +198,76 @@
     <t>Semana 41</t>
   </si>
   <si>
-    <t>Lunes 04</t>
-  </si>
-  <si>
-    <t>Martes 05</t>
-  </si>
-  <si>
-    <t>Miercoles 06</t>
-  </si>
-  <si>
-    <t>Jueves 07</t>
-  </si>
-  <si>
-    <t>Viernes 08</t>
-  </si>
-  <si>
-    <t>Sabado 09</t>
-  </si>
-  <si>
-    <t>Domingo 10</t>
-  </si>
-  <si>
-    <t>Lopez Rueda Tomas</t>
-  </si>
-  <si>
     <t>Personal nuevo ingreso obrador</t>
+  </si>
+  <si>
+    <t>Flores Perez Fanny Yared</t>
+  </si>
+  <si>
+    <t>Flores Perez Gustabo</t>
+  </si>
+  <si>
+    <t>Romero Ibarra Roberto</t>
+  </si>
+  <si>
+    <t>Descanso</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Lunes 25</t>
+  </si>
+  <si>
+    <t>Martes 26</t>
+  </si>
+  <si>
+    <t>Miercoles 27</t>
+  </si>
+  <si>
+    <t>Jueves 28</t>
+  </si>
+  <si>
+    <t>Viernes 29</t>
+  </si>
+  <si>
+    <t>Sabado 30</t>
+  </si>
+  <si>
+    <t>Domingo 31</t>
+  </si>
+  <si>
+    <t>Zavaleta</t>
+  </si>
+  <si>
+    <t>Juarez Ortiz Remedios</t>
+  </si>
+  <si>
+    <t>Ramirez Alonso Brandom Julian</t>
+  </si>
+  <si>
+    <t>Mendez Apanco Jesus</t>
+  </si>
+  <si>
+    <t>Carrilo Jaramillo Ricarda</t>
+  </si>
+  <si>
+    <t>Merino Gallardo Maria Martha</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Obrador</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal nuevo ingreso </t>
+  </si>
+  <si>
+    <t>presente</t>
   </si>
 </sst>
 </file>
@@ -233,7 +278,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +343,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -319,7 +392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -438,11 +511,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -482,15 +581,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,8 +615,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,47 +1207,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4CFA-1C11-4ABD-9DFD-012DF7328487}">
-  <dimension ref="B1:T70"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:K63"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1348,23 +1489,23 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1613,23 +1754,23 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="28"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1652,14 +1793,14 @@
         <v>54</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
     </row>
     <row r="38" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -1826,7 +1967,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>41</v>
       </c>
@@ -1841,7 +1982,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>42</v>
       </c>
@@ -1856,7 +1997,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>43</v>
       </c>
@@ -1871,7 +2012,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <v>44</v>
       </c>
@@ -1886,103 +2027,258 @@
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="29" t="s">
+    <row r="53" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="9"/>
+      <c r="B53" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="9"/>
+    </row>
+    <row r="54" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="9"/>
+      <c r="B54" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="2:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="30" t="s">
+      <c r="G54" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="19" t="s">
+      <c r="N54" s="27"/>
+      <c r="O54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S54" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="T54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="U54" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="V54" s="17"/>
+    </row>
+    <row r="55" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="32"/>
+    </row>
+    <row r="56" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="D56" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="32"/>
+    </row>
+    <row r="57" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" s="19" t="s">
+      <c r="D57" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="19" t="s">
+      <c r="E57" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J54" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K54" s="21"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-    </row>
-    <row r="55" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10"/>
-      <c r="C55" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="18"/>
-    </row>
-    <row r="56" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="18"/>
-    </row>
-    <row r="57" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="F57" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="J57" s="9"/>
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K57" s="32"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="32"/>
+    </row>
+    <row r="58" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>70</v>
+      </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="C58" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+    </row>
+    <row r="59" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="C59" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
@@ -1990,10 +2286,27 @@
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
-    </row>
-    <row r="60" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="9"/>
+    </row>
+    <row r="60" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
+      <c r="C60" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -2001,11 +2314,27 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="61" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="33"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="33"/>
+    </row>
+    <row r="61" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -2013,11 +2342,27 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K61" s="33"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="33"/>
+    </row>
+    <row r="62" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
+      <c r="C62" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -2025,8 +2370,21 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="2:15" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+    </row>
+    <row r="63" spans="1:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="9"/>
@@ -2036,25 +2394,37 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-    </row>
-    <row r="64" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="31" t="s">
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+    </row>
+    <row r="64" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
     </row>
     <row r="65" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="1" t="s">
         <v>48</v>
       </c>
@@ -2153,7 +2523,13 @@
       <c r="J70" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="22">
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
     <mergeCell ref="M37:T37"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B3:C3"/>
@@ -2165,6 +2541,11 @@
     <mergeCell ref="B53:J53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B64:J64"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
